--- a/3 - Implementation/testing.xlsx
+++ b/3 - Implementation/testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cityofedinburgheducation-my.sharepoint.com/personal/130679900_ea_edin_sch_uk/Documents/Adv Higher/Computing Science/Advanced higher assignment/adv-higher-assignment/3 - Implementation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{65A7848E-5B23-483C-A94D-C5B08E81FC59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{79B00BB6-1AA6-4DC9-B638-9F2C1EFA9F83}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{65A7848E-5B23-483C-A94D-C5B08E81FC59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{68C80F87-AF2C-4620-BF29-59270EA30BF7}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{A38B2F67-0226-4682-BFB5-DB00A3697710}"/>
+    <workbookView minimized="1" xWindow="930" yWindow="0" windowWidth="14790" windowHeight="16200" xr2:uid="{A38B2F67-0226-4682-BFB5-DB00A3697710}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Test</t>
   </si>
@@ -46,16 +46,78 @@
   </si>
   <si>
     <t>Reference</t>
+  </si>
+  <si>
+    <t>Not working</t>
+  </si>
+  <si>
+    <t>Previous word highlighting</t>
+  </si>
+  <si>
+    <t>Only highlight second/third word so it doesn't go to a value of -1</t>
+  </si>
+  <si>
+    <t>Deleting every word instead of a row</t>
+  </si>
+  <si>
+    <t>Use offsetTop(container) instead of getBoundingClientRect(window)</t>
+  </si>
+  <si>
+    <t>MDN Web docs</t>
+  </si>
+  <si>
+    <t>Line deletion</t>
+  </si>
+  <si>
+    <t>Displaying words typed</t>
+  </si>
+  <si>
+    <t>Ticking down every second instead of word</t>
+  </si>
+  <si>
+    <t>Put the counter in wordCount instead of the setInterval loop</t>
+  </si>
+  <si>
+    <t>Buttons don't change the settings</t>
+  </si>
+  <si>
+    <t>Buttons changing settings</t>
+  </si>
+  <si>
+    <t>convert the variables to int, instead of a string "0" for example</t>
+  </si>
+  <si>
+    <t>Submit button will reload the page</t>
+  </si>
+  <si>
+    <t>Add return false to the end, so it doesn't refresh</t>
+  </si>
+  <si>
+    <t>Stack overflow</t>
+  </si>
+  <si>
+    <t>Submit button works properly</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/en-US/docs/Web/API/HTMLElement/offsetTop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -78,13 +140,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -397,15 +462,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C0DE14-5B17-43A9-B35C-45BE31DCFDC6}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1"/>
+    <col min="3" max="3" width="63.140625" customWidth="1"/>
+    <col min="4" max="4" width="70.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -422,7 +490,74 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{55B28533-1D5B-4812-A952-B7C363692069}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/3 - Implementation/testing.xlsx
+++ b/3 - Implementation/testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cityofedinburgheducation-my.sharepoint.com/personal/130679900_ea_edin_sch_uk/Documents/Adv Higher/Computing Science/Advanced higher assignment/adv-higher-assignment/3 - Implementation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="8_{65A7848E-5B23-483C-A94D-C5B08E81FC59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{68C80F87-AF2C-4620-BF29-59270EA30BF7}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{65A7848E-5B23-483C-A94D-C5B08E81FC59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EA258517-DB79-49DA-AD91-24C901E0B7C6}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="930" yWindow="0" windowWidth="14790" windowHeight="16200" xr2:uid="{A38B2F67-0226-4682-BFB5-DB00A3697710}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{A38B2F67-0226-4682-BFB5-DB00A3697710}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Test</t>
   </si>
@@ -100,6 +100,39 @@
   </si>
   <si>
     <t>https://developer.mozilla.org/en-US/docs/Web/API/HTMLElement/offsetTop</t>
+  </si>
+  <si>
+    <t>Instead of POST request, use XMLHttpRequest function, post from there, and return false</t>
+  </si>
+  <si>
+    <t>Finish button submits data properly</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/en-US/docs/Web/API/FormData</t>
+  </si>
+  <si>
+    <t>Submitted data being parsed correctly</t>
+  </si>
+  <si>
+    <t>Submitted data returning nothing</t>
+  </si>
+  <si>
+    <t>FormData is in format multipart/form-data so use node-formidable to parse instead of body-parser</t>
+  </si>
+  <si>
+    <t>https://github.com/node-formidable/formidable</t>
+  </si>
+  <si>
+    <t>Finish button sends a request to server</t>
+  </si>
+  <si>
+    <t>Finish button does nothing</t>
+  </si>
+  <si>
+    <t>Finish button sends data but reloads the page</t>
+  </si>
+  <si>
+    <t>use app.post instead of app.get in server file</t>
   </si>
 </sst>
 </file>
@@ -462,17 +495,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C0DE14-5B17-43A9-B35C-45BE31DCFDC6}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" customWidth="1"/>
     <col min="2" max="2" width="41.140625" customWidth="1"/>
-    <col min="3" max="3" width="63.140625" customWidth="1"/>
+    <col min="3" max="3" width="89.28515625" customWidth="1"/>
     <col min="4" max="4" width="70.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -554,9 +587,50 @@
         <v>19</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{55B28533-1D5B-4812-A952-B7C363692069}"/>
+    <hyperlink ref="D8" r:id="rId2" xr:uid="{5B76758B-B309-43AE-B75E-23F93AD3F4CB}"/>
+    <hyperlink ref="D9" r:id="rId3" xr:uid="{4B6B4A91-D5FE-4215-AA24-768FEBDC6FC5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3 - Implementation/testing.xlsx
+++ b/3 - Implementation/testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cityofedinburgheducation-my.sharepoint.com/personal/130679900_ea_edin_sch_uk/Documents/Adv Higher/Computing Science/Advanced higher assignment/adv-higher-assignment/3 - Implementation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="8_{65A7848E-5B23-483C-A94D-C5B08E81FC59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EA258517-DB79-49DA-AD91-24C901E0B7C6}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="8_{65A7848E-5B23-483C-A94D-C5B08E81FC59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F32D0402-24D3-4C8C-B176-9250F72E62A4}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{A38B2F67-0226-4682-BFB5-DB00A3697710}"/>
   </bookViews>
@@ -117,12 +117,6 @@
     <t>Submitted data returning nothing</t>
   </si>
   <si>
-    <t>FormData is in format multipart/form-data so use node-formidable to parse instead of body-parser</t>
-  </si>
-  <si>
-    <t>https://github.com/node-formidable/formidable</t>
-  </si>
-  <si>
     <t>Finish button sends a request to server</t>
   </si>
   <si>
@@ -133,6 +127,12 @@
   </si>
   <si>
     <t>use app.post instead of app.get in server file</t>
+  </si>
+  <si>
+    <t>FormData is in format multipart/form-data so use express-formidable to parse</t>
+  </si>
+  <si>
+    <t>https://github.com/hatashiro/express-formidable</t>
   </si>
 </sst>
 </file>
@@ -498,14 +498,14 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.140625" customWidth="1"/>
     <col min="2" max="2" width="41.140625" customWidth="1"/>
-    <col min="3" max="3" width="89.28515625" customWidth="1"/>
+    <col min="3" max="3" width="91" customWidth="1"/>
     <col min="4" max="4" width="70.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -589,13 +589,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
         <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -603,7 +603,7 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
@@ -620,10 +620,10 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/3 - Implementation/testing.xlsx
+++ b/3 - Implementation/testing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cityofedinburgheducation-my.sharepoint.com/personal/130679900_ea_edin_sch_uk/Documents/Adv Higher/Computing Science/Advanced higher assignment/adv-higher-assignment/3 - Implementation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="8_{65A7848E-5B23-483C-A94D-C5B08E81FC59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F32D0402-24D3-4C8C-B176-9250F72E62A4}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="8_{65A7848E-5B23-483C-A94D-C5B08E81FC59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1B18C7C9-9A76-4290-9275-2B03928D6D28}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{A38B2F67-0226-4682-BFB5-DB00A3697710}"/>
+    <workbookView xWindow="5625" yWindow="0" windowWidth="14790" windowHeight="16200" xr2:uid="{A38B2F67-0226-4682-BFB5-DB00A3697710}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Test</t>
   </si>
@@ -133,6 +133,27 @@
   </si>
   <si>
     <t>https://github.com/hatashiro/express-formidable</t>
+  </si>
+  <si>
+    <t>Bubble sort sorts properly</t>
+  </si>
+  <si>
+    <t>Program freezing</t>
+  </si>
+  <si>
+    <t>Bool checking if data is still being swapped had to be strongly compared with ===</t>
+  </si>
+  <si>
+    <t>View word button works correctly</t>
+  </si>
+  <si>
+    <t>returns TypeError: "x" is not a function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change onclick function to be different from the ID </t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/en-US/docs/Web/JavaScript/Reference/Errors/Not_a_function</t>
   </si>
 </sst>
 </file>
@@ -495,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C0DE14-5B17-43A9-B35C-45BE31DCFDC6}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,6 +647,31 @@
         <v>32</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{55B28533-1D5B-4812-A952-B7C363692069}"/>

--- a/3 - Implementation/testing.xlsx
+++ b/3 - Implementation/testing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cityofedinburgheducation-my.sharepoint.com/personal/130679900_ea_edin_sch_uk/Documents/Adv Higher/Computing Science/Advanced higher assignment/adv-higher-assignment/3 - Implementation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\130679900\OneDrive - The City of Edinburgh Council\Adv Higher\Computing Science\Advanced higher assignment\adv-higher-assignment\3 - Implementation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="8_{65A7848E-5B23-483C-A94D-C5B08E81FC59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1B18C7C9-9A76-4290-9275-2B03928D6D28}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="8_{65A7848E-5B23-483C-A94D-C5B08E81FC59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{09A7B527-FDEE-4867-AA88-C9ED89B1B0BE}"/>
   <bookViews>
     <workbookView xWindow="5625" yWindow="0" windowWidth="14790" windowHeight="16200" xr2:uid="{A38B2F67-0226-4682-BFB5-DB00A3697710}"/>
   </bookViews>
@@ -23,10 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Test</t>
   </si>
@@ -154,6 +150,18 @@
   </si>
   <si>
     <t>https://developer.mozilla.org/en-US/docs/Web/JavaScript/Reference/Errors/Not_a_function</t>
+  </si>
+  <si>
+    <t>Submitting your name works properly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your </t>
+  </si>
+  <si>
+    <t>If name is empty, it is stored empty</t>
+  </si>
+  <si>
+    <t>Add a dummy name "Anon" for anonymous users</t>
   </si>
 </sst>
 </file>
@@ -516,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C0DE14-5B17-43A9-B35C-45BE31DCFDC6}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,6 +680,20 @@
         <v>39</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{55B28533-1D5B-4812-A952-B7C363692069}"/>

--- a/3 - Implementation/testing.xlsx
+++ b/3 - Implementation/testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\130679900\OneDrive - The City of Edinburgh Council\Adv Higher\Computing Science\Advanced higher assignment\adv-higher-assignment\3 - Implementation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="8_{65A7848E-5B23-483C-A94D-C5B08E81FC59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{09A7B527-FDEE-4867-AA88-C9ED89B1B0BE}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="8_{65A7848E-5B23-483C-A94D-C5B08E81FC59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{2A79EADD-7FA1-4B8A-83B4-12ADFBDFA7B4}"/>
   <bookViews>
     <workbookView xWindow="5625" yWindow="0" windowWidth="14790" windowHeight="16200" xr2:uid="{A38B2F67-0226-4682-BFB5-DB00A3697710}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Test</t>
   </si>
@@ -62,21 +62,9 @@
     <t>MDN Web docs</t>
   </si>
   <si>
-    <t>Line deletion</t>
-  </si>
-  <si>
-    <t>Displaying words typed</t>
-  </si>
-  <si>
-    <t>Ticking down every second instead of word</t>
-  </si>
-  <si>
     <t>Put the counter in wordCount instead of the setInterval loop</t>
   </si>
   <si>
-    <t>Buttons don't change the settings</t>
-  </si>
-  <si>
     <t>Buttons changing settings</t>
   </si>
   <si>
@@ -98,39 +86,6 @@
     <t>https://developer.mozilla.org/en-US/docs/Web/API/HTMLElement/offsetTop</t>
   </si>
   <si>
-    <t>Instead of POST request, use XMLHttpRequest function, post from there, and return false</t>
-  </si>
-  <si>
-    <t>Finish button submits data properly</t>
-  </si>
-  <si>
-    <t>https://developer.mozilla.org/en-US/docs/Web/API/FormData</t>
-  </si>
-  <si>
-    <t>Submitted data being parsed correctly</t>
-  </si>
-  <si>
-    <t>Submitted data returning nothing</t>
-  </si>
-  <si>
-    <t>Finish button sends a request to server</t>
-  </si>
-  <si>
-    <t>Finish button does nothing</t>
-  </si>
-  <si>
-    <t>Finish button sends data but reloads the page</t>
-  </si>
-  <si>
-    <t>use app.post instead of app.get in server file</t>
-  </si>
-  <si>
-    <t>FormData is in format multipart/form-data so use express-formidable to parse</t>
-  </si>
-  <si>
-    <t>https://github.com/hatashiro/express-formidable</t>
-  </si>
-  <si>
     <t>Bubble sort sorts properly</t>
   </si>
   <si>
@@ -155,13 +110,64 @@
     <t>Submitting your name works properly</t>
   </si>
   <si>
-    <t xml:space="preserve">Your </t>
-  </si>
-  <si>
     <t>If name is empty, it is stored empty</t>
   </si>
   <si>
     <t>Add a dummy name "Anon" for anonymous users</t>
+  </si>
+  <si>
+    <t>LocalStorage doesn't work with settings</t>
+  </si>
+  <si>
+    <t>Instead of the scoreboard working from length of localStorage, make it work from its own counter</t>
+  </si>
+  <si>
+    <t>Line deletion when you get to end of line</t>
+  </si>
+  <si>
+    <t>LocalStorage will save settings</t>
+  </si>
+  <si>
+    <t>Displaying words typed in the countdown</t>
+  </si>
+  <si>
+    <t>changing every second instead of when a word is typed</t>
+  </si>
+  <si>
+    <t>Buttons don't do anything</t>
+  </si>
+  <si>
+    <t>LocalStorage can't store the user score</t>
+  </si>
+  <si>
+    <t>Data needs to be parsed into string format, and deparsed later</t>
+  </si>
+  <si>
+    <t>LocalStorage will save scores properly</t>
+  </si>
+  <si>
+    <t>LocalStorage will save a score</t>
+  </si>
+  <si>
+    <t>LocalStorage breaks with 0 scores</t>
+  </si>
+  <si>
+    <t>Add a condition to check the length of localStorage is above 0</t>
+  </si>
+  <si>
+    <t>Socreboard will update with new scores</t>
+  </si>
+  <si>
+    <t>Scoreboard looks for an undefined value</t>
+  </si>
+  <si>
+    <t>Set the key to search to index - 1 as the length is 1 based, while the array is 0 based</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/en-US/docs/Web/API/Window/localStorage</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/en-US/docs/Web/API/Node/textContent</t>
   </si>
 </sst>
 </file>
@@ -524,16 +530,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C0DE14-5B17-43A9-B35C-45BE31DCFDC6}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.140625" customWidth="1"/>
-    <col min="2" max="2" width="41.140625" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
     <col min="3" max="3" width="91" customWidth="1"/>
     <col min="4" max="4" width="70.140625" customWidth="1"/>
   </cols>
@@ -565,7 +571,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -574,18 +580,18 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -593,112 +599,120 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{55B28533-1D5B-4812-A952-B7C363692069}"/>
-    <hyperlink ref="D8" r:id="rId2" xr:uid="{5B76758B-B309-43AE-B75E-23F93AD3F4CB}"/>
-    <hyperlink ref="D9" r:id="rId3" xr:uid="{4B6B4A91-D5FE-4215-AA24-768FEBDC6FC5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
